--- a/test_08.xlsx
+++ b/test_08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="8130" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="8130" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Profesores" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Nombre</t>
   </si>
@@ -522,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,17 +530,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,17 +661,6 @@
         <v>4</v>
       </c>
       <c r="C11" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3">
         <v>1.5</v>
       </c>
     </row>
@@ -814,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
